--- a/xlsx/左翼_intext.xlsx
+++ b/xlsx/左翼_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
   <si>
     <t>左翼</t>
   </si>
@@ -29,7 +29,7 @@
     <t>派系</t>
   </si>
   <si>
-    <t>政策_政策_美國_左翼</t>
+    <t>政策_政策_美国_左翼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%BC%E9%8B%92</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>平等原則</t>
+    <t>平等原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>平等主義</t>
+    <t>平等主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%B4%BE</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>選擇</t>
+    <t>选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E8%BF%9B%E4%B8%BB%E4%B9%89</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>法國國民議會</t>
+    <t>法国国民议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%8E%8B%E9%BB%A8</t>
   </si>
   <si>
-    <t>保王黨</t>
+    <t>保王党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>資產階級</t>
+    <t>资产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>俄國共產黨</t>
+    <t>俄国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE%E5%92%8C%E5%8F%B3%E6%B4%BE</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E7%AD%89%E7%B4%9A</t>
   </si>
   <si>
-    <t>第三等級</t>
+    <t>第三等级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%B2%B3%E6%B4%BE</t>
@@ -167,19 +167,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%E8%B3%93%E9%BB%A8</t>
   </si>
   <si>
-    <t>雅各賓黨</t>
+    <t>雅各宾党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%B4%9A%E6%9C%83%E8%AD%B0_(%E6%B3%95%E8%98%AD%E8%A5%BF)</t>
   </si>
   <si>
-    <t>三級會議 (法蘭西)</t>
+    <t>三级会议 (法兰西)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%8F%9A%E6%B4%BE</t>
   </si>
   <si>
-    <t>斐揚派</t>
+    <t>斐扬派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
@@ -191,31 +191,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
+    <t>共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D</t>
   </si>
   <si>
-    <t>馬克思</t>
+    <t>马克思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%A0%BC%E6%96%AF</t>
@@ -227,91 +227,91 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>共產黨宣言</t>
+    <t>共产党宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>無產階級</t>
+    <t>无产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%9A%8E%E7%B4%9A%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>無階級社會</t>
+    <t>无阶级社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>第一國際</t>
+    <t>第一国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>第二國際</t>
+    <t>第二国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄國</t>
+    <t>俄国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%88%BE%E4%BB%80%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>布爾什維克</t>
+    <t>布尔什维克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AF%A7</t>
   </si>
   <si>
-    <t>列寧</t>
+    <t>列宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%8E%8E%C2%B7%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>羅莎·盧森堡</t>
+    <t>罗莎·卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
+    <t>社会民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%B7%A6</t>
   </si>
   <si>
-    <t>中間偏左</t>
+    <t>中间偏左</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%98%87%E4%BA%A4%E6%83%A1</t>
   </si>
   <si>
-    <t>中蘇交惡</t>
+    <t>中苏交恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E9%A3%8E%E6%9A%B4</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>越戰</t>
+    <t>越战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B7%A6%E6%B4%BE</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%B7%A6%E6%B4%BE</t>
   </si>
   <si>
-    <t>舊左派</t>
+    <t>旧左派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -371,43 +371,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%8F%B3</t>
   </si>
   <si>
-    <t>中間偏右</t>
+    <t>中间偏右</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%89%E8%AD%9C</t>
   </si>
   <si>
-    <t>政治光譜</t>
+    <t>政治光谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現代自由主義</t>
+    <t>现代自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%BD%97%E5%B0%94%E6%96%AF</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -449,13 +449,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%98%AD%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>諾蘭曲線</t>
+    <t>诺兰曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社團主義</t>
+    <t>社团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%94%BF%E5%BA%9C</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府共產主義</t>
+    <t>无政府共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
@@ -485,19 +485,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>世俗主義</t>
+    <t>世俗主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>集體主義</t>
+    <t>集体主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%96%87%E5%8C%96</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -563,19 +563,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A1%9B</t>
   </si>
   <si>
-    <t>世衛</t>
+    <t>世卫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%B8%BB%E4%B9%89</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -611,61 +611,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>共產黨</t>
+    <t>共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>無產階級專政</t>
+    <t>无产阶级专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E6%B4%BE</t>
   </si>
   <si>
-    <t>中間派</t>
+    <t>中间派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會自由主義</t>
+    <t>社会自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>西方社會</t>
+    <t>西方社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E6%BE%A4%E5%85%8B%C2%B7%E6%9F%AF%E6%8B%89%E6%9F%AF%E5%A4%AB%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>萊斯澤克·柯拉柯夫斯基</t>
+    <t>莱斯泽克·柯拉柯夫斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%89%98%E9%82%A6</t>
   </si>
   <si>
-    <t>烏托邦</t>
+    <t>乌托邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>自由經濟</t>
+    <t>自由经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>國際政治</t>
+    <t>国际政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88</t>
@@ -677,55 +677,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E6%B1%BA</t>
   </si>
   <si>
-    <t>民族自決</t>
+    <t>民族自决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%81%A9%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>凱恩斯主義</t>
+    <t>凯恩斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E6%A5%AD%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>產業民主</t>
+    <t>产业民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>社會市場經濟</t>
+    <t>社会市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E5%8C%96</t>
   </si>
   <si>
-    <t>國有化</t>
+    <t>国有化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>計劃經濟</t>
+    <t>计划经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -737,67 +737,67 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E6%B1%97%E5%B7%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>血汗工廠</t>
+    <t>血汗工厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9%E6%94%BF%E6%B2%BB%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>馬克思主義政治經濟學</t>
+    <t>马克思主义政治经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>革命社會主義</t>
+    <t>革命社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會主義國家</t>
+    <t>社会主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%B0%93%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>流氓無產階級</t>
+    <t>流氓无产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E8%AB%96</t>
   </si>
   <si>
-    <t>資本論</t>
+    <t>资本论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
   </si>
   <si>
-    <t>毛澤東</t>
+    <t>毛泽东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>左派自由意志主義</t>
+    <t>左派自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志社會主義</t>
+    <t>自由意志社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>左派無政府主義</t>
+    <t>左派无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B1%82%E6%94%BF%E6%9D%83</t>
@@ -815,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%8F</t>
   </si>
   <si>
-    <t>國族</t>
+    <t>国族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BA%A7%E9%98%B6%E7%BA%A7%E5%9B%BD%E9%99%85%E4%B8%BB%E4%B9%89</t>
@@ -827,37 +827,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>社會階級</t>
+    <t>社会阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>工人階級</t>
+    <t>工人阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E4%B8%96%E7%95%8C%E7%84%A1%E7%94%A2%E8%80%85%EF%BC%8C%E8%81%AF%E5%90%88%E8%B5%B7%E4%BE%86%EF%BC%81</t>
   </si>
   <si>
-    <t>全世界無產者，聯合起來！</t>
+    <t>全世界无产者，联合起来！</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>統治階級</t>
+    <t>统治阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反帝國主義</t>
+    <t>反帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%B8%96%E7%95%8C</t>
@@ -875,39 +875,36 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E5%85%A8%E7%90%83%E5%8C%96%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>另類全球化運動</t>
+    <t>另类全球化运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%B4%BE%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>右派民粹主義</t>
+    <t>右派民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
+    <t>国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AF%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>列寧主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD%E5%AE%B6</t>
   </si>
   <si>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%BB%A8%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>社會黨國際</t>
+    <t>社会党国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E5%85%9A%E5%92%8C%E5%B7%A5%E4%BA%BA%E5%85%9A%E5%9B%BD%E9%99%85%E4%BC%9A%E8%AE%AE</t>
@@ -959,19 +956,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
+    <t>女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E8%8E%89%C2%B7%E5%90%B3%E7%88%BE%E5%8F%B2%E6%9D%B1%E5%85%8B%E6%8B%89%E8%8A%99%E7%89%B9</t>
   </si>
   <si>
-    <t>瑪莉·吳爾史東克拉芙特</t>
+    <t>玛莉·吴尔史东克拉芙特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
   </si>
   <si>
-    <t>湯瑪斯·潘恩</t>
+    <t>汤玛斯·潘恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E6%8B%89%C2%B7%E8%94%A1%E7%89%B9%E9%87%91</t>
@@ -983,49 +980,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%BE%B7%E6%8B%89%C2%B7%E7%A7%91%E5%80%AB%E6%B3%B0</t>
   </si>
   <si>
-    <t>亞歷山德拉·科倫泰</t>
+    <t>亚历山德拉·科伦泰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教社會主義</t>
+    <t>基督教社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%80%AB%C2%B7%E5%87%B1%E5%8B%92</t>
   </si>
   <si>
-    <t>海倫·凱勒</t>
+    <t>海伦·凯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府主義</t>
+    <t>无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%91%AA%C2%B7%E6%88%88%E7%88%BE%E5%BE%B7%E6%9B%BC</t>
   </si>
   <si>
-    <t>愛瑪·戈爾德曼</t>
+    <t>爱玛·戈尔德曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>民權運動</t>
+    <t>民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>新社會運動</t>
+    <t>新社会运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E8%A7%A3%E6%94%BE</t>
@@ -1043,55 +1040,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BF%E5%AD%95%E8%97%A5</t>
   </si>
   <si>
-    <t>避孕藥</t>
+    <t>避孕药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%AE%E8%83%8E</t>
   </si>
   <si>
-    <t>墮胎</t>
+    <t>堕胎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E9%80%B2%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>激進女性主義</t>
+    <t>激进女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%C2%B7%E6%88%B4%E8%8E%89</t>
   </si>
   <si>
-    <t>瑪麗·戴莉</t>
+    <t>玛丽·戴莉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>深層生態學</t>
+    <t>深层生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E6%AD%A5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>進步主義</t>
+    <t>进步主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E5%A5%B4%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>廢奴主義</t>
+    <t>废奴主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
   </si>
   <si>
-    <t>女性投票權</t>
+    <t>女性投票权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%AC%8A_(%E6%86%B2%E6%B3%95%E5%AD%B8)</t>
   </si>
   <si>
-    <t>基本權 (憲法學)</t>
+    <t>基本权 (宪法学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E6%96%87%E5%8C%96%E6%94%BF%E7%AD%96</t>
@@ -1103,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91</t>
@@ -1133,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B9%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>幹細胞</t>
+    <t>干细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%95%99%E8%82%B2</t>
@@ -1145,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA%E5%A5%97</t>
   </si>
   <si>
-    <t>保險套</t>
+    <t>保险套</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -1157,37 +1154,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1</t>
   </si>
   <si>
-    <t>傳統</t>
+    <t>传统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%A7%92%E8%89%B2</t>
   </si>
   <si>
-    <t>性別角色</t>
+    <t>性别角色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>性別認同</t>
+    <t>性别认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%88%B0</t>
   </si>
   <si>
-    <t>反戰</t>
+    <t>反战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%B8%96%E7%95%8C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>第三世界主義</t>
+    <t>第三世界主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>帝國主義</t>
+    <t>帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%8C%A8%C2%B7%E6%B3%95%E5%86%9C</t>
@@ -1199,49 +1196,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%93%88%E9%82%81%E5%BE%B7%C2%B7%E6%9C%AC%C2%B7%E8%B2%9D%E6%8B%89</t>
   </si>
   <si>
-    <t>艾哈邁德·本·貝拉</t>
+    <t>艾哈迈德·本·贝拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%B1%B3%E7%88%BE%C2%B7%E9%98%BF%E6%95%8F</t>
   </si>
   <si>
-    <t>薩米爾·阿敏</t>
+    <t>萨米尔·阿敏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%9D%9E%E6%B4%B2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>泛非洲主義</t>
+    <t>泛非洲主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>泛阿拉伯主義</t>
+    <t>泛阿拉伯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1%E6%80%9D%E6%83%B3</t>
   </si>
   <si>
-    <t>毛澤東思想</t>
+    <t>毛泽东思想</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E8%A7%A3%E6%94%BE%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>巴勒斯坦解放組織</t>
+    <t>巴勒斯坦解放组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%9C%B0%E8%AB%BE%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>桑地諾民族解放陣線</t>
+    <t>桑地诺民族解放阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E9%9D%9E%E6%B4%B2%E4%BA%BA%E5%9C%8B%E6%B0%91%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>南非非洲人國民大會</t>
+    <t>南非非洲人国民大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -1253,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%B8%95%E5%A1%94%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>薩帕塔民族解放運動</t>
+    <t>萨帕塔民族解放运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -1277,19 +1274,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非政府組織</t>
+    <t>非政府组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後現代主義</t>
+    <t>后现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>解構主義</t>
+    <t>解构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A0%94%E7%A9%B6</t>
@@ -1301,25 +1298,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>物理學家</t>
+    <t>物理学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>文學批評</t>
+    <t>文学批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治哲學</t>
+    <t>政治哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%9C%89%E5%BC%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>萬有引力</t>
+    <t>万有引力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%8D%A1%E4%BA%8B%E4%BB%B6</t>
@@ -1331,19 +1328,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
   </si>
   <si>
-    <t>羅斯福新政</t>
+    <t>罗斯福新政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>非裔美國人民權運動</t>
+    <t>非裔美国人民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1964%E5%B9%B4%E6%B0%91%E6%AC%8A%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1964年民權法案</t>
+    <t>1964年民权法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%9D%83%E6%B3%95%E6%A1%88</t>
@@ -1361,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E6%9F%AF%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>比爾·柯林頓</t>
+    <t>比尔·柯林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%9D%A1%E9%81%93%E8%B7%AF</t>
@@ -1373,73 +1370,70 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%BB%A8_(%E6%B3%95%E5%9C%8B)</t>
   </si>
   <si>
-    <t>社會黨 (法國)</t>
+    <t>社会党 (法国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>工黨 (英國)</t>
+    <t>工党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%B4%9B%E6%96%AF%E5%9F%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>托洛斯基主義</t>
+    <t>托洛斯基主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民主社會主義</t>
+    <t>民主社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%90%86%E9%9B%85</t>
   </si>
   <si>
-    <t>貝理雅</t>
+    <t>贝理雅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E7%B1%B3%C2%B7%E7%A7%91%E7%88%BE%E8%B3%93</t>
   </si>
   <si>
-    <t>杰里米·科爾賓</t>
+    <t>杰里米·科尔宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>社会主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國國民黨</t>
+    <t>中国国民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E4%B8%AD%E5%B1%B1</t>
   </si>
   <si>
-    <t>孫中山</t>
+    <t>孙中山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%BB%8B%E7%9F%B3</t>
   </si>
   <si>
-    <t>蔣介石</t>
+    <t>蒋介石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E9%9D%A9%E5%91%BD%E8%BB%8D%E5%8C%97%E4%BC%90</t>
   </si>
   <si>
-    <t>國民革命軍北伐</t>
+    <t>国民革命军北伐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%85%B1</t>
@@ -1451,13 +1445,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>中國民族主義</t>
+    <t>中国民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%85%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反共主義</t>
+    <t>反共主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E5%85%9A%E5%B7%A6%E6%B4%BE</t>
@@ -1469,19 +1463,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8%E9%9D%A9%E5%91%BD%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>中國國民黨革命委員會</t>
+    <t>中国国民党革命委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%BE%B2%E5%B7%A5%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國農工民主黨</t>
+    <t>中国农工民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
+    <t>中国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E9%9D%A9%E5%91%BD</t>
@@ -1493,25 +1487,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%94%E9%A1%9E</t>
   </si>
   <si>
-    <t>黑五類</t>
+    <t>黑五类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E9%96%8B%E6%94%BE</t>
   </si>
   <si>
-    <t>改革開放</t>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%89%B9%E8%89%B2%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>中國特色社會主義</t>
+    <t>中国特色社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
@@ -1523,9 +1517,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>资本主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -1547,19 +1538,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>朝鮮民族主義</t>
+    <t>朝鲜民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%8C%97</t>
   </si>
   <si>
-    <t>親北</t>
+    <t>亲北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%85%E9%81%93</t>
   </si>
   <si>
-    <t>全羅道</t>
+    <t>全罗道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%86%E5%B0%9A%E9%81%93</t>
@@ -1577,55 +1568,55 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%AD%A6%E9%89%89</t>
   </si>
   <si>
-    <t>盧武鉉</t>
+    <t>卢武铉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%BD%E5%85%89%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>陽光政策</t>
+    <t>阳光政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%89%B2</t>
   </si>
   <si>
-    <t>紅色</t>
+    <t>红色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%89%E7%B4%85%E8%89%B2</t>
   </si>
   <si>
-    <t>粉紅色</t>
+    <t>粉红色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>德國社會民主黨</t>
+    <t>德国社会民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%A9%E5%A4%A7%E5%88%A9)</t>
   </si>
   <si>
-    <t>民主黨 (義大利)</t>
+    <t>民主党 (义大利)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%87%AA%E7%94%B1%E9%BB%A8</t>
   </si>
   <si>
-    <t>加拿大自由黨</t>
+    <t>加拿大自由党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%B7%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>澳洲工黨</t>
+    <t>澳洲工党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -1637,13 +1628,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%86%B2%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>立憲民主黨</t>
+    <t>立宪民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>社會民主黨 (日本)</t>
+    <t>社会民主党 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1655,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%A7%86%C2%B7%E5%96%AC%E5%A7%86%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>諾姆·喬姆斯基</t>
+    <t>诺姆·乔姆斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -1667,19 +1658,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E8%80%83%E8%8C%A8%E5%9F%BA</t>
   </si>
   <si>
-    <t>卡爾·考茨基</t>
+    <t>卡尔·考茨基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%B7%A6%E6%B4%BE</t>
   </si>
   <si>
-    <t>極左派</t>
+    <t>极左派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC%E5%9B%BD%E9%99%85%E6%94%BF%E5%85%9A%E7%BB%84%E7%BB%87%E5%88%97%E8%A1%A8</t>
@@ -1691,13 +1682,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE</t>
@@ -6427,7 +6418,7 @@
         <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>108</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6453,10 +6444,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6482,10 +6473,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6511,10 +6502,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6540,10 +6531,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6569,10 +6560,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6598,10 +6589,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6627,10 +6618,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6656,10 +6647,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6685,10 +6676,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6714,10 +6705,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>312</v>
+      </c>
+      <c r="F161" t="s">
         <v>313</v>
-      </c>
-      <c r="F161" t="s">
-        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>6</v>
@@ -6743,10 +6734,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>314</v>
+      </c>
+      <c r="F162" t="s">
         <v>315</v>
-      </c>
-      <c r="F162" t="s">
-        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6772,10 +6763,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>316</v>
+      </c>
+      <c r="F163" t="s">
         <v>317</v>
-      </c>
-      <c r="F163" t="s">
-        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6830,10 +6821,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>318</v>
+      </c>
+      <c r="F165" t="s">
         <v>319</v>
-      </c>
-      <c r="F165" t="s">
-        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6859,10 +6850,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>320</v>
+      </c>
+      <c r="F166" t="s">
         <v>321</v>
-      </c>
-      <c r="F166" t="s">
-        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6888,10 +6879,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
         <v>323</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6917,10 +6908,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
         <v>325</v>
-      </c>
-      <c r="F168" t="s">
-        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6946,10 +6937,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" t="s">
         <v>327</v>
-      </c>
-      <c r="F169" t="s">
-        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6975,10 +6966,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F170" t="s">
         <v>329</v>
-      </c>
-      <c r="F170" t="s">
-        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7033,10 +7024,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>330</v>
+      </c>
+      <c r="F172" t="s">
         <v>331</v>
-      </c>
-      <c r="F172" t="s">
-        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7062,10 +7053,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>332</v>
+      </c>
+      <c r="F173" t="s">
         <v>333</v>
-      </c>
-      <c r="F173" t="s">
-        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7091,10 +7082,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>334</v>
+      </c>
+      <c r="F174" t="s">
         <v>335</v>
-      </c>
-      <c r="F174" t="s">
-        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>13</v>
@@ -7120,10 +7111,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>336</v>
+      </c>
+      <c r="F175" t="s">
         <v>337</v>
-      </c>
-      <c r="F175" t="s">
-        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7149,10 +7140,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>338</v>
+      </c>
+      <c r="F176" t="s">
         <v>339</v>
-      </c>
-      <c r="F176" t="s">
-        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7178,10 +7169,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>340</v>
+      </c>
+      <c r="F177" t="s">
         <v>341</v>
-      </c>
-      <c r="F177" t="s">
-        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7207,10 +7198,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>342</v>
+      </c>
+      <c r="F178" t="s">
         <v>343</v>
-      </c>
-      <c r="F178" t="s">
-        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7236,10 +7227,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>344</v>
+      </c>
+      <c r="F179" t="s">
         <v>345</v>
-      </c>
-      <c r="F179" t="s">
-        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7265,10 +7256,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>346</v>
+      </c>
+      <c r="F180" t="s">
         <v>347</v>
-      </c>
-      <c r="F180" t="s">
-        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7294,10 +7285,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>348</v>
+      </c>
+      <c r="F181" t="s">
         <v>349</v>
-      </c>
-      <c r="F181" t="s">
-        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7323,10 +7314,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>350</v>
+      </c>
+      <c r="F182" t="s">
         <v>351</v>
-      </c>
-      <c r="F182" t="s">
-        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>9</v>
@@ -7352,10 +7343,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>352</v>
+      </c>
+      <c r="F183" t="s">
         <v>353</v>
-      </c>
-      <c r="F183" t="s">
-        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7381,10 +7372,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>354</v>
+      </c>
+      <c r="F184" t="s">
         <v>355</v>
-      </c>
-      <c r="F184" t="s">
-        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7410,10 +7401,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>356</v>
+      </c>
+      <c r="F185" t="s">
         <v>357</v>
-      </c>
-      <c r="F185" t="s">
-        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7439,10 +7430,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>358</v>
+      </c>
+      <c r="F186" t="s">
         <v>359</v>
-      </c>
-      <c r="F186" t="s">
-        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7468,10 +7459,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>360</v>
+      </c>
+      <c r="F187" t="s">
         <v>361</v>
-      </c>
-      <c r="F187" t="s">
-        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7497,10 +7488,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>362</v>
+      </c>
+      <c r="F188" t="s">
         <v>363</v>
-      </c>
-      <c r="F188" t="s">
-        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7526,10 +7517,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>364</v>
+      </c>
+      <c r="F189" t="s">
         <v>365</v>
-      </c>
-      <c r="F189" t="s">
-        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7555,10 +7546,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>366</v>
+      </c>
+      <c r="F190" t="s">
         <v>367</v>
-      </c>
-      <c r="F190" t="s">
-        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7584,10 +7575,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>368</v>
+      </c>
+      <c r="F191" t="s">
         <v>369</v>
-      </c>
-      <c r="F191" t="s">
-        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7613,10 +7604,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>370</v>
+      </c>
+      <c r="F192" t="s">
         <v>371</v>
-      </c>
-      <c r="F192" t="s">
-        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7642,10 +7633,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>372</v>
+      </c>
+      <c r="F193" t="s">
         <v>373</v>
-      </c>
-      <c r="F193" t="s">
-        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7671,10 +7662,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>374</v>
+      </c>
+      <c r="F194" t="s">
         <v>375</v>
-      </c>
-      <c r="F194" t="s">
-        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7700,10 +7691,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>350</v>
+      </c>
+      <c r="F195" t="s">
         <v>351</v>
-      </c>
-      <c r="F195" t="s">
-        <v>352</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -7729,10 +7720,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>376</v>
+      </c>
+      <c r="F196" t="s">
         <v>377</v>
-      </c>
-      <c r="F196" t="s">
-        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>4</v>
@@ -7758,10 +7749,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>378</v>
+      </c>
+      <c r="F197" t="s">
         <v>379</v>
-      </c>
-      <c r="F197" t="s">
-        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>7</v>
@@ -7787,10 +7778,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>380</v>
+      </c>
+      <c r="F198" t="s">
         <v>381</v>
-      </c>
-      <c r="F198" t="s">
-        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7816,10 +7807,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>382</v>
+      </c>
+      <c r="F199" t="s">
         <v>383</v>
-      </c>
-      <c r="F199" t="s">
-        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7845,10 +7836,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>384</v>
+      </c>
+      <c r="F200" t="s">
         <v>385</v>
-      </c>
-      <c r="F200" t="s">
-        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7874,10 +7865,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>386</v>
+      </c>
+      <c r="F201" t="s">
         <v>387</v>
-      </c>
-      <c r="F201" t="s">
-        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>9</v>
@@ -7903,10 +7894,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>388</v>
+      </c>
+      <c r="F202" t="s">
         <v>389</v>
-      </c>
-      <c r="F202" t="s">
-        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7932,10 +7923,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>390</v>
+      </c>
+      <c r="F203" t="s">
         <v>391</v>
-      </c>
-      <c r="F203" t="s">
-        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7961,10 +7952,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>392</v>
+      </c>
+      <c r="F204" t="s">
         <v>393</v>
-      </c>
-      <c r="F204" t="s">
-        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7990,10 +7981,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>394</v>
+      </c>
+      <c r="F205" t="s">
         <v>395</v>
-      </c>
-      <c r="F205" t="s">
-        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8019,10 +8010,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>396</v>
+      </c>
+      <c r="F206" t="s">
         <v>397</v>
-      </c>
-      <c r="F206" t="s">
-        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8048,10 +8039,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>398</v>
+      </c>
+      <c r="F207" t="s">
         <v>399</v>
-      </c>
-      <c r="F207" t="s">
-        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8077,10 +8068,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>400</v>
+      </c>
+      <c r="F208" t="s">
         <v>401</v>
-      </c>
-      <c r="F208" t="s">
-        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8106,10 +8097,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>402</v>
+      </c>
+      <c r="F209" t="s">
         <v>403</v>
-      </c>
-      <c r="F209" t="s">
-        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8135,10 +8126,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>404</v>
+      </c>
+      <c r="F210" t="s">
         <v>405</v>
-      </c>
-      <c r="F210" t="s">
-        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8164,10 +8155,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>406</v>
+      </c>
+      <c r="F211" t="s">
         <v>407</v>
-      </c>
-      <c r="F211" t="s">
-        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8193,10 +8184,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>408</v>
+      </c>
+      <c r="F212" t="s">
         <v>409</v>
-      </c>
-      <c r="F212" t="s">
-        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8222,10 +8213,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>410</v>
+      </c>
+      <c r="F213" t="s">
         <v>411</v>
-      </c>
-      <c r="F213" t="s">
-        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8251,10 +8242,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>412</v>
+      </c>
+      <c r="F214" t="s">
         <v>413</v>
-      </c>
-      <c r="F214" t="s">
-        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8280,10 +8271,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>414</v>
+      </c>
+      <c r="F215" t="s">
         <v>415</v>
-      </c>
-      <c r="F215" t="s">
-        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8309,10 +8300,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>416</v>
+      </c>
+      <c r="F216" t="s">
         <v>417</v>
-      </c>
-      <c r="F216" t="s">
-        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8338,10 +8329,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>418</v>
+      </c>
+      <c r="F217" t="s">
         <v>419</v>
-      </c>
-      <c r="F217" t="s">
-        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8367,10 +8358,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>420</v>
+      </c>
+      <c r="F218" t="s">
         <v>421</v>
-      </c>
-      <c r="F218" t="s">
-        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>7</v>
@@ -8396,10 +8387,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>422</v>
+      </c>
+      <c r="F219" t="s">
         <v>423</v>
-      </c>
-      <c r="F219" t="s">
-        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8425,10 +8416,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>424</v>
+      </c>
+      <c r="F220" t="s">
         <v>425</v>
-      </c>
-      <c r="F220" t="s">
-        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8454,10 +8445,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>426</v>
+      </c>
+      <c r="F221" t="s">
         <v>427</v>
-      </c>
-      <c r="F221" t="s">
-        <v>428</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8483,10 +8474,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>428</v>
+      </c>
+      <c r="F222" t="s">
         <v>429</v>
-      </c>
-      <c r="F222" t="s">
-        <v>430</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8512,10 +8503,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>430</v>
+      </c>
+      <c r="F223" t="s">
         <v>431</v>
-      </c>
-      <c r="F223" t="s">
-        <v>432</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8541,10 +8532,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>432</v>
+      </c>
+      <c r="F224" t="s">
         <v>433</v>
-      </c>
-      <c r="F224" t="s">
-        <v>434</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8570,10 +8561,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>434</v>
+      </c>
+      <c r="F225" t="s">
         <v>435</v>
-      </c>
-      <c r="F225" t="s">
-        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8628,10 +8619,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>436</v>
+      </c>
+      <c r="F227" t="s">
         <v>437</v>
-      </c>
-      <c r="F227" t="s">
-        <v>438</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8657,10 +8648,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>438</v>
+      </c>
+      <c r="F228" t="s">
         <v>439</v>
-      </c>
-      <c r="F228" t="s">
-        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8686,10 +8677,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>440</v>
+      </c>
+      <c r="F229" t="s">
         <v>441</v>
-      </c>
-      <c r="F229" t="s">
-        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8715,10 +8706,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>442</v>
+      </c>
+      <c r="F230" t="s">
         <v>443</v>
-      </c>
-      <c r="F230" t="s">
-        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8744,10 +8735,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>444</v>
+      </c>
+      <c r="F231" t="s">
         <v>445</v>
-      </c>
-      <c r="F231" t="s">
-        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8773,10 +8764,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>446</v>
+      </c>
+      <c r="F232" t="s">
         <v>447</v>
-      </c>
-      <c r="F232" t="s">
-        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8802,10 +8793,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>448</v>
+      </c>
+      <c r="F233" t="s">
         <v>449</v>
-      </c>
-      <c r="F233" t="s">
-        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -8831,10 +8822,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>450</v>
+      </c>
+      <c r="F234" t="s">
         <v>451</v>
-      </c>
-      <c r="F234" t="s">
-        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>5</v>
@@ -8860,10 +8851,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>452</v>
+      </c>
+      <c r="F235" t="s">
         <v>453</v>
-      </c>
-      <c r="F235" t="s">
-        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>6</v>
@@ -8889,10 +8880,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>454</v>
+      </c>
+      <c r="F236" t="s">
         <v>455</v>
-      </c>
-      <c r="F236" t="s">
-        <v>456</v>
       </c>
       <c r="G236" t="n">
         <v>4</v>
@@ -8918,10 +8909,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>456</v>
+      </c>
+      <c r="F237" t="s">
         <v>457</v>
-      </c>
-      <c r="F237" t="s">
-        <v>458</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8947,10 +8938,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>458</v>
+      </c>
+      <c r="F238" t="s">
         <v>459</v>
-      </c>
-      <c r="F238" t="s">
-        <v>460</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8976,10 +8967,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>460</v>
+      </c>
+      <c r="F239" t="s">
         <v>461</v>
-      </c>
-      <c r="F239" t="s">
-        <v>462</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9005,10 +8996,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>462</v>
+      </c>
+      <c r="F240" t="s">
         <v>463</v>
-      </c>
-      <c r="F240" t="s">
-        <v>464</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9034,10 +9025,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>62</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9063,10 +9054,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -9092,10 +9083,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9121,10 +9112,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9150,10 +9141,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9179,10 +9170,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9208,10 +9199,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9237,10 +9228,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9266,10 +9257,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9295,10 +9286,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9324,10 +9315,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9353,10 +9344,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9382,10 +9373,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9411,10 +9402,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9440,10 +9431,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9469,10 +9460,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9498,10 +9489,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>4</v>
@@ -9527,10 +9518,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9556,10 +9547,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>248</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9585,10 +9576,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9614,10 +9605,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9643,10 +9634,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9701,10 +9692,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9730,10 +9721,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9759,10 +9750,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -9788,10 +9779,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9817,10 +9808,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9846,10 +9837,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9875,10 +9866,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9904,10 +9895,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G271" t="n">
         <v>3</v>
@@ -9933,10 +9924,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -9962,10 +9953,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9991,10 +9982,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>452</v>
+      </c>
+      <c r="F274" t="s">
         <v>453</v>
-      </c>
-      <c r="F274" t="s">
-        <v>454</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10020,10 +10011,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>450</v>
+      </c>
+      <c r="F275" t="s">
         <v>451</v>
-      </c>
-      <c r="F275" t="s">
-        <v>452</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10049,10 +10040,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10078,10 +10069,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10107,10 +10098,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10136,10 +10127,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10165,10 +10156,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10194,10 +10185,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10223,10 +10214,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -10252,10 +10243,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G283" t="n">
         <v>3</v>
@@ -10281,10 +10272,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10310,10 +10301,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10339,10 +10330,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10368,10 +10359,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10397,10 +10388,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -10426,10 +10417,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10455,10 +10446,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10484,10 +10475,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10513,10 +10504,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G292" t="n">
         <v>7</v>
@@ -10542,10 +10533,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F293" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
